--- a/Documentos/API - Agenda aulas - 3 nivel - 2024-1.xlsx
+++ b/Documentos/API - Agenda aulas - 3 nivel - 2024-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\GitHub\D-Traker\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando\(Desenvolvimento)\1oSem2024\D-Traker\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6390D578-7078-4988-A403-A0CE27BDE793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD2162A-72CD-448B-8223-5CEC3BC8AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,6 +428,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,28 +456,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F909374-D5BD-4605-958A-DE380CAC4265}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,29 +959,30 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="10" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -992,7 +994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>45362</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,8 +1027,14 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="I6" s="31"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,8 +1073,13 @@
       <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1118,13 @@
       <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,15 +1142,17 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>45369</v>
       </c>
@@ -1149,7 +1169,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1465,7 @@
       <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="25" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1465,7 +1485,7 @@
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="4" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1503,7 @@
       <c r="D36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="4" t="s">
         <v>26</v>
       </c>
@@ -1501,7 +1521,7 @@
       <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="4" t="s">
         <v>26</v>
       </c>
@@ -1519,7 +1539,7 @@
       <c r="D38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -1552,24 +1572,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -2044,7 +2064,7 @@
       <c r="D34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -2064,7 +2084,7 @@
       <c r="D35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2082,7 +2102,7 @@
       <c r="D36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2100,7 +2120,7 @@
       <c r="D37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="4" t="s">
         <v>26</v>
       </c>
@@ -2118,7 +2138,7 @@
       <c r="D38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -2151,24 +2171,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -2643,7 +2663,7 @@
       <c r="D34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -2663,7 +2683,7 @@
       <c r="D35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2681,7 +2701,7 @@
       <c r="D36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2699,7 +2719,7 @@
       <c r="D37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="4" t="s">
         <v>26</v>
       </c>
@@ -2717,7 +2737,7 @@
       <c r="D38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -2735,514 +2755,514 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEDF680-8E1C-42E0-9E54-82FA3AAD083F}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="13">
         <v>2</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19">
+      <c r="A4" s="28"/>
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="14">
         <v>4</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="14">
         <v>6</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="14">
         <v>7</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="14">
         <v>8</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="13">
         <v>9</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21">
+      <c r="A5" s="28"/>
+      <c r="B5" s="15">
         <v>10</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <v>11</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="16">
         <v>12</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="16">
         <v>13</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="16">
         <v>14</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="16">
         <v>15</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="15">
         <v>16</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="21">
+      <c r="A6" s="28"/>
+      <c r="B6" s="15">
         <v>17</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <v>18</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="16">
         <v>19</v>
       </c>
-      <c r="E6" s="22">
-        <v>20</v>
-      </c>
-      <c r="F6" s="22">
-        <v>21</v>
-      </c>
-      <c r="G6" s="22">
-        <v>22</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="E6" s="16">
+        <v>20</v>
+      </c>
+      <c r="F6" s="16">
+        <v>21</v>
+      </c>
+      <c r="G6" s="16">
+        <v>22</v>
+      </c>
+      <c r="H6" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="21">
-        <v>24</v>
-      </c>
-      <c r="C7" s="22">
-        <v>25</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="A7" s="28"/>
+      <c r="B7" s="15">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16">
+        <v>25</v>
+      </c>
+      <c r="D7" s="16">
         <v>26</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="16">
         <v>27</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="16">
         <v>28</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="16">
         <v>29</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="15">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="21">
+      <c r="A8" s="28"/>
+      <c r="B8" s="15">
         <v>31</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="22">
+      <c r="B9" s="13"/>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="14">
         <v>4</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19">
+      <c r="A10" s="28"/>
+      <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="14">
         <v>9</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="14">
         <v>10</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="14">
         <v>11</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="14">
         <v>12</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19">
+      <c r="A11" s="28"/>
+      <c r="B11" s="13">
         <v>14</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="14">
         <v>15</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="14">
         <v>16</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="14">
         <v>17</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="14">
         <v>18</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="14">
         <v>19</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19">
-        <v>21</v>
-      </c>
-      <c r="C12" s="24">
-        <v>22</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17">
+        <v>22</v>
+      </c>
+      <c r="D12" s="17">
         <v>23</v>
       </c>
-      <c r="E12" s="24">
-        <v>24</v>
-      </c>
-      <c r="F12" s="24">
-        <v>25</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="E12" s="17">
+        <v>24</v>
+      </c>
+      <c r="F12" s="17">
+        <v>25</v>
+      </c>
+      <c r="G12" s="17">
         <v>26</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="18">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="18">
         <v>28</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="17">
         <v>29</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="17">
         <v>30</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="24">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="17">
         <v>1</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="17">
         <v>2</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="17">
         <v>3</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="17">
         <v>6</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="17">
         <v>7</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="17">
         <v>8</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="17">
         <v>9</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="17">
         <v>10</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="17">
         <v>13</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="17">
         <v>14</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <v>15</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="14">
         <v>16</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="14">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19">
+      <c r="A17" s="28"/>
+      <c r="B17" s="13">
         <v>19</v>
       </c>
-      <c r="C17" s="27">
-        <v>20</v>
-      </c>
-      <c r="D17" s="27">
-        <v>21</v>
-      </c>
-      <c r="E17" s="27">
-        <v>22</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="C17" s="19">
+        <v>20</v>
+      </c>
+      <c r="D17" s="19">
+        <v>21</v>
+      </c>
+      <c r="E17" s="19">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19">
         <v>23</v>
       </c>
-      <c r="G17" s="27">
-        <v>24</v>
-      </c>
-      <c r="H17" s="28">
+      <c r="G17" s="19">
+        <v>24</v>
+      </c>
+      <c r="H17" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="28">
+      <c r="A18" s="28"/>
+      <c r="B18" s="20">
         <v>26</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="19">
         <v>27</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="19">
         <v>28</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="19">
         <v>29</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="19">
         <v>30</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="19">
         <v>31</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="19">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="28">
+      <c r="A20" s="28"/>
+      <c r="B20" s="20">
         <v>2</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="19">
         <v>3</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="19">
         <v>4</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="19">
         <v>5</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="19">
         <v>6</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="19">
         <v>7</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="28">
+      <c r="A21" s="28"/>
+      <c r="B21" s="20">
         <v>9</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="19">
         <v>10</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="19">
         <v>11</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="19">
         <v>12</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="14">
         <v>13</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="14">
         <v>14</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19">
+      <c r="A22" s="28"/>
+      <c r="B22" s="13">
         <v>16</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="14">
         <v>17</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="14">
         <v>18</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="14">
         <v>19</v>
       </c>
-      <c r="F22" s="20">
-        <v>20</v>
-      </c>
-      <c r="G22" s="20">
-        <v>21</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="F22" s="14">
+        <v>20</v>
+      </c>
+      <c r="G22" s="14">
+        <v>21</v>
+      </c>
+      <c r="H22" s="13">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19">
+      <c r="A23" s="28"/>
+      <c r="B23" s="13">
         <v>23</v>
       </c>
-      <c r="C23" s="20">
-        <v>24</v>
-      </c>
-      <c r="D23" s="20">
-        <v>25</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="C23" s="14">
+        <v>24</v>
+      </c>
+      <c r="D23" s="14">
+        <v>25</v>
+      </c>
+      <c r="E23" s="14">
         <v>26</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="14">
         <v>27</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="14">
         <v>28</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19">
+      <c r="A24" s="28"/>
+      <c r="B24" s="13">
         <v>30</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3261,14 +3281,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3473,21 +3491,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD15DC9-A389-4CE0-97B7-8F836F6B9AB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F00EAAC-1DFE-4AA6-BE2C-4AB151DD86C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
-    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3512,9 +3529,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F00EAAC-1DFE-4AA6-BE2C-4AB151DD86C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD15DC9-A389-4CE0-97B7-8F836F6B9AB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
+    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentos/API - Agenda aulas - 3 nivel - 2024-1.xlsx
+++ b/Documentos/API - Agenda aulas - 3 nivel - 2024-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pessoal\fatec\jacarei\DSM\API\2024-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74F43D5-92A7-4650-B6FA-3411EEAD9BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF046DF-492E-4650-A778-C1EBC1032073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19968" windowHeight="12336" activeTab="2" xr2:uid="{5A79BD2C-7FB4-4CDA-88C4-C274EF65DA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="28">
   <si>
     <t>segunda-feira</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Agenda da Sprint 1 - 11/03/2024 a 03/04/2024</t>
   </si>
   <si>
-    <t>O calendário da Sprint 3 será revisto</t>
-  </si>
-  <si>
     <t>Prova 1</t>
   </si>
   <si>
@@ -169,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,12 +176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,8 +276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +290,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -619,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F909374-D5BD-4605-958A-DE380CAC4265}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -633,24 +625,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
@@ -1117,7 +1109,7 @@
       <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1137,7 +1129,7 @@
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +1147,7 @@
       <c r="D36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="4" t="s">
         <v>23</v>
       </c>
@@ -1173,7 +1165,7 @@
       <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
@@ -1191,7 +1183,7 @@
       <c r="D38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -1210,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919050A3-06F3-4B9A-A699-9994F4BF1FC6}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,24 +1216,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
@@ -1310,7 +1302,7 @@
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1330,7 +1322,7 @@
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1348,7 +1340,7 @@
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1366,7 +1358,7 @@
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1384,7 +1376,7 @@
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1396,7 +1388,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
@@ -1569,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1589,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1609,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
@@ -1629,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
@@ -1649,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>20</v>
@@ -1981,7 +1973,7 @@
       <c r="D52" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -2001,7 +1993,7 @@
       <c r="D53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="4" t="s">
         <v>17</v>
       </c>
@@ -2019,7 +2011,7 @@
       <c r="D54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="4" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +2029,7 @@
       <c r="D55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="4" t="s">
         <v>23</v>
       </c>
@@ -2055,7 +2047,7 @@
       <c r="D56" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="4"/>
     </row>
   </sheetData>
@@ -2073,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB79F1F7-35AB-4C0E-98B2-F7360B2E8EAB}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,24 +2081,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
@@ -2116,58 +2108,70 @@
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
+      <c r="B5" s="2">
+        <v>45425</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45426</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45427</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45428</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45429</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>45425</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45426</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45427</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45428</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -2181,13 +2185,13 @@
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -2201,33 +2205,33 @@
       <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -2235,74 +2239,74 @@
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+      <c r="B13" s="2">
+        <v>45432</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45433</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45434</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45435</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45436</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>45432</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45433</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45434</v>
-      </c>
-      <c r="E14" s="2">
-        <v>45435</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>19</v>
@@ -2322,9 +2326,9 @@
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2333,116 +2337,116 @@
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>45439</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45440</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45441</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45442</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45443</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>45439</v>
-      </c>
-      <c r="C23" s="2">
-        <v>45440</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45441</v>
-      </c>
-      <c r="E23" s="2">
-        <v>45442</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2454,17 +2458,17 @@
         <v>21</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2474,107 +2478,107 @@
         <v>21</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>21</v>
+      <c r="D28" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>45446</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45447</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45448</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45449</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45450</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <v>45446</v>
-      </c>
-      <c r="C32" s="2">
-        <v>45447</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45448</v>
-      </c>
-      <c r="E32" s="2">
-        <v>45449</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>19</v>
@@ -2588,15 +2592,15 @@
       <c r="E34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2605,106 +2609,106 @@
       <c r="D35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="4"/>
+      <c r="D37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>45453</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45454</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45455</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45456</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45457</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
-        <v>45453</v>
-      </c>
-      <c r="C41" s="2">
-        <v>45454</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45455</v>
-      </c>
-      <c r="E41" s="2">
-        <v>45456</v>
-      </c>
-      <c r="F41" s="2">
-        <v>45457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>19</v>
@@ -2715,18 +2719,16 @@
       <c r="D43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2735,68 +2737,50 @@
       <c r="D44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="14"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="12"/>
       <c r="F45" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="4"/>
+      <c r="D46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E42:E46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2805,6 +2789,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006795F9309C3AB34BB3D82BE70F0FEC9D" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c9a1d31a48d4168ae78733f71e7b2efa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3f78198-29fa-40dc-a64e-451b3f068329" xmlns:ns3="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e56f88943290b30cde4a9180a750d4bc" ns2:_="" ns3:_="">
     <xsd:import namespace="b3f78198-29fa-40dc-a64e-451b3f068329"/>
@@ -3005,27 +3009,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3f78198-29fa-40dc-a64e-451b3f068329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD15DC9-A389-4CE0-97B7-8F836F6B9AB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
+    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F00EAAC-1DFE-4AA6-BE2C-4AB151DD86C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DBD2A97-5BE6-4EAF-A14A-A6E45A159284}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3042,23 +3045,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD15DC9-A389-4CE0-97B7-8F836F6B9AB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfb6d2a8-d536-4b2e-a91d-7dbf952b7065"/>
-    <ds:schemaRef ds:uri="b3f78198-29fa-40dc-a64e-451b3f068329"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F00EAAC-1DFE-4AA6-BE2C-4AB151DD86C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>